--- a/data/serie_peaje.xlsx
+++ b/data/serie_peaje.xlsx
@@ -1,37 +1,315 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>GENERADOR</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 012023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 022023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 032023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 042023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 052023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 062023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 072023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 082023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 092023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 102023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 112023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 122023</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 012024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 022024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 032024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 042024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 052024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 062024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 072024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 082024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 092024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 102024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 112024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 122024</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 012025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 022025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 032025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 042025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 052025</t>
+  </si>
+  <si>
+    <t>Peaje generación USD/MWh 062025</t>
+  </si>
+  <si>
+    <t>Aguai (Autoproductor)</t>
+  </si>
+  <si>
+    <t>Aguaí Energia</t>
+  </si>
+  <si>
+    <t>Aranjuez</t>
+  </si>
+  <si>
+    <t>C. El Alto</t>
+  </si>
+  <si>
+    <t>C. Moxos</t>
+  </si>
+  <si>
+    <t>CHACO ENERGIAS S.A.</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>Corani</t>
+  </si>
+  <si>
+    <t>Cumbre</t>
+  </si>
+  <si>
+    <t>Del Sur</t>
+  </si>
+  <si>
+    <t>Entre Ríos</t>
+  </si>
+  <si>
+    <t>Entre Ríos II</t>
+  </si>
+  <si>
+    <t>Eólica El Dorado</t>
+  </si>
+  <si>
+    <t>Eólica San Julián</t>
+  </si>
+  <si>
+    <t>Eólica Warnes</t>
+  </si>
+  <si>
+    <t>GBE</t>
+  </si>
+  <si>
+    <t>Guaracachi</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>Huaji</t>
+  </si>
+  <si>
+    <t>Kanata ARO</t>
+  </si>
+  <si>
+    <t>Kanata VHE</t>
+  </si>
+  <si>
+    <t>Miguillas</t>
+  </si>
+  <si>
+    <t>Misicuni ARO</t>
+  </si>
+  <si>
+    <t>Misicuni VHE</t>
+  </si>
+  <si>
+    <t>Qollpana (Fase I)</t>
+  </si>
+  <si>
+    <t>Qollpana (Fase II)</t>
+  </si>
+  <si>
+    <t>RIO ELECTRICO S.A.</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>San Jacinto</t>
+  </si>
+  <si>
+    <t>San José I</t>
+  </si>
+  <si>
+    <t>San José II</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Cruz (Aguaí)</t>
+  </si>
+  <si>
+    <t>Santa Cruz (EASBA)</t>
+  </si>
+  <si>
+    <t>Santa Cruz (Unagro)</t>
+  </si>
+  <si>
+    <t>Santa Isabel</t>
+  </si>
+  <si>
+    <t>Solar Oruro (Fase I)</t>
+  </si>
+  <si>
+    <t>Solar Oruro (Fase II)</t>
+  </si>
+  <si>
+    <t>Uyuni</t>
+  </si>
+  <si>
+    <t>Valle Hermoso</t>
+  </si>
+  <si>
+    <t>Warnes</t>
+  </si>
+  <si>
+    <t>Yunchara</t>
+  </si>
+  <si>
+    <t>Zongo</t>
+  </si>
+  <si>
+    <t>AGUAÍ ENERGÍA S.A.</t>
+  </si>
+  <si>
+    <t>ENDE GUARACACHI S.A.</t>
+  </si>
+  <si>
+    <t>ENDE VALLE HERMOSO S.A.</t>
+  </si>
+  <si>
+    <t>ENDE GENERACION</t>
+  </si>
+  <si>
+    <t>ENDE CORANI S.A.</t>
+  </si>
+  <si>
+    <t>COBEE BPCo</t>
+  </si>
+  <si>
+    <t>ENDE ANDINA S.A.M.</t>
+  </si>
+  <si>
+    <t>SYNERGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO ELECTRICO S.A. </t>
+  </si>
+  <si>
+    <t>Biomasa</t>
+  </si>
+  <si>
+    <t>Termo</t>
+  </si>
+  <si>
+    <t>Hidro</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +324,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,4788 +640,4458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GENERADOR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TECNOLOGIA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 012023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 022023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 032023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 042023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 052023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 062023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 072023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 082023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 092023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 102023</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 112023</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 122023</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 012024</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 022024</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 032024</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 042024</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 052024</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 062024</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 072024</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 082024</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 092024</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 102024</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 112024</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 122024</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 012025</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 022025</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 032025</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 042025</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 052025</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Peaje generación USD/MWh 062025</t>
-        </is>
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Aguai (Autoproductor)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AGUAÍ ENERGÍA S.A.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>4.146</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4.148875</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>4.157749999999999</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>4.161125</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>4.16675</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>4.172875</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>3.96</v>
       </c>
-      <c r="O2" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="O2">
+        <v>3.959875</v>
+      </c>
+      <c r="P2">
+        <v>3.959875</v>
+      </c>
+      <c r="Q2">
         <v>3.969</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>3.970125</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>3.973125</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>3.895</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>3.903375</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>3.912375</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>3.920125</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>3.927</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>3.950375</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>3.998</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>4.02225</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>4.044</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>4.06025</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>4.090375</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>4.110375</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aguaí Energia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AGUAÍ ENERGÍA S.A.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
         <v>3.82125</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3.82275</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3.827625</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.821375</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>4.146</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4.148875</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>4.157749999999999</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>4.161125</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>4.16675</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>4.172875</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>3.96</v>
       </c>
-      <c r="O3" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="O3">
+        <v>3.959875</v>
+      </c>
+      <c r="P3">
+        <v>3.959875</v>
+      </c>
+      <c r="Q3">
         <v>3.969</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>3.970125</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>3.973125</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3.895</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>3.903375</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>3.912375</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>3.920125</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3.927</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>3.950375</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>3.998</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>4.02225</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>4.044</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>4.06025</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>4.090375</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>4.110375</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Aranjuez</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
         <v>3.82125</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3.82275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3.827625</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.821375</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>4.146</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4.148875</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>4.15775</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>4.161125</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>4.16675</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>4.172875</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>3.96</v>
       </c>
-      <c r="O4" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="O4">
+        <v>3.959875</v>
+      </c>
+      <c r="P4">
+        <v>3.959875</v>
+      </c>
+      <c r="Q4">
         <v>3.969</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>3.970125</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>3.973125</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>3.895</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>3.903375</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>3.912375</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>3.920125</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>3.927</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>3.950375</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>3.998</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>4.02225</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>4.044</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>4.06025</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>4.090375</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>4.110375</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>4.396</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C. El Alto</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENDE VALLE HERMOSO S.A.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
         <v>3.82125</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3.82275</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.827625</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3.821375</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>4.146</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4.148875</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4.15775</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>4.161125</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>4.16675</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>4.172875</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>3.96</v>
       </c>
-      <c r="O5" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="O5">
+        <v>3.959875</v>
+      </c>
+      <c r="P5">
+        <v>3.959875</v>
+      </c>
+      <c r="Q5">
         <v>3.969</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>3.970125</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>3.973125</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>3.895</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>3.903375</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>3.912375</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>3.920125</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>3.927</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>3.950375</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>3.998</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>4.02225</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>4.044</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>4.06025</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>4.090375</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>4.110375</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>4.396</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C. Moxos</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6">
         <v>3.82125</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3.82275</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3.827625</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3.821375</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>4.146</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4.148875</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>4.15775</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>4.161125</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>4.16675</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>4.172875</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>3.96</v>
       </c>
-      <c r="O6" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="O6">
+        <v>3.959875</v>
+      </c>
+      <c r="P6">
+        <v>3.959875</v>
+      </c>
+      <c r="Q6">
         <v>3.969</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>3.970125</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>3.973125</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>3.895</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>3.903375</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>3.912375</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>3.920125</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>3.927</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>3.950375</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>3.998</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>4.02225</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>4.044</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>4.06025</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>4.090375</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>4.110375</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>4.396</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CHACO ENERGIAS S.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CHACO ENERGIAS S.A.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
         <v>3.82125</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.82275</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.827625</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.821375</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>4.146</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4.148875</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4.157749999999999</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>4.161125</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>4.16675</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>4.172875</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>3.96</v>
       </c>
-      <c r="O7" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="O7">
+        <v>3.959875</v>
+      </c>
+      <c r="P7">
+        <v>3.959875</v>
+      </c>
+      <c r="Q7">
         <v>3.969</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>3.970125</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>3.973125</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>3.895</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>3.903375</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>3.912375</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>3.920125</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>3.927</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>3.950375</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>3.998</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>4.02225</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>4.044</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>4.06025</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>4.090375</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>4.110375</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENDE VALLE HERMOSO S.A.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
         <v>3.82125</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3.82275</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.827625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3.821375</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>4.146</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>4.148875</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>4.15775</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>4.161125</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>4.16675</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>4.172875</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>3.96</v>
       </c>
-      <c r="O8" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="O8">
+        <v>3.959875</v>
+      </c>
+      <c r="P8">
+        <v>3.959875</v>
+      </c>
+      <c r="Q8">
         <v>3.969</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>3.970125</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>3.973125</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>3.895</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>3.903375</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>3.912375</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>3.920125</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>3.927</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>3.950375</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>3.998</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>4.02225</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>4.044</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>4.06025</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>4.090375</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>4.110375</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>4.396</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Corani</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
         <v>3.82125</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3.82275</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3.827625</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3.821375</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>4.146</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>4.148875</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4.15775</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>4.161125</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>4.16675</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>4.172875</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>3.96</v>
       </c>
-      <c r="O9" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="O9">
+        <v>3.959875</v>
+      </c>
+      <c r="P9">
+        <v>3.959875</v>
+      </c>
+      <c r="Q9">
         <v>3.969</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>3.970125</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>3.973125</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>3.895</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>3.903375</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>3.912375</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>3.920125</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>3.927</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>3.950375</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>3.998</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>4.02225</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>4.044</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>4.06025</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>4.090375</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>4.110375</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>4.396</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cumbre</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>COBEE BPCo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10">
         <v>3.82125</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3.82275</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3.827625</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3.821375</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>4.146</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>4.148875</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4.157749999999999</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>4.161125</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>4.16675</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>4.172875</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>3.96</v>
       </c>
-      <c r="O10" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="O10">
+        <v>3.959875</v>
+      </c>
+      <c r="P10">
+        <v>3.959875</v>
+      </c>
+      <c r="Q10">
         <v>3.969</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>3.970125</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>3.973125</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>3.895</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>3.903375</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>3.912375</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>3.920125</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>3.927</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>3.950375</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>3.998</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>4.02225</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>4.044</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>4.06025</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>4.090375</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>4.110375</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Del Sur</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ENDE ANDINA S.A.M.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11">
         <v>3.82125</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3.82275</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3.827625</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3.821375</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>4.146</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>4.148875</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>4.15775</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>4.161125</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>4.16675</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>4.172875</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>3.96</v>
       </c>
-      <c r="O11" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="O11">
+        <v>3.959875</v>
+      </c>
+      <c r="P11">
+        <v>3.959875</v>
+      </c>
+      <c r="Q11">
         <v>3.969</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>3.970125</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>3.973125</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>3.895</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>3.903375</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>3.912375</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>3.920125</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>3.927</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>3.950375</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>3.998</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>4.02225</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>4.044</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>4.06025</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>4.090375</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>4.110375</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>4.396</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Entre Ríos</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENDE ANDINA S.A.M.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
         <v>3.82125</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.82275</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3.827625</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3.821375</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>4.146</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>4.148875</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>4.15775</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>4.161125</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>4.16675</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>4.172875</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>3.96</v>
       </c>
-      <c r="O12" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="O12">
+        <v>3.959875</v>
+      </c>
+      <c r="P12">
+        <v>3.959875</v>
+      </c>
+      <c r="Q12">
         <v>3.969</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>3.970125</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>3.973125</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>3.895</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>3.903375</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>3.912375</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>3.920125</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>3.927</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>3.950375</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>3.998</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>4.02225</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>4.044</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>4.06025</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>4.090375</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>4.110375</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>4.396</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Entre Ríos II</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ENDE ANDINA S.A.M.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13">
         <v>3.82125</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3.82275</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>3.827625</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3.821375</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>4.146</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>4.148875</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>4.15775</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>4.161125</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>4.16675</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>4.172875</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>3.96</v>
       </c>
-      <c r="O13" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="O13">
+        <v>3.959875</v>
+      </c>
+      <c r="P13">
+        <v>3.959875</v>
+      </c>
+      <c r="Q13">
         <v>3.969</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>3.970125</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>3.973125</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>3.895</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>3.903375</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>3.912375</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>3.920125</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>3.927</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>3.950375</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>3.998</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>4.02225</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>4.044</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>4.06025</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>4.090375</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>4.110375</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>4.396</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Eólica El Dorado</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
         <v>3.82125</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>3.82275</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>3.827625</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3.821375</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>4.146</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>4.148875</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>4.15775</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>4.161125</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>4.16675</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>4.172875</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>3.96</v>
       </c>
-      <c r="O14" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="O14">
+        <v>3.959875</v>
+      </c>
+      <c r="P14">
+        <v>3.959875</v>
+      </c>
+      <c r="Q14">
         <v>3.969</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>3.970125</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>3.973125</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>3.895</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>3.903375</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>3.912375</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>3.920125</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>3.927</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>3.950375</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>3.998</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>4.02225</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>4.044</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>4.06025</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>4.090375</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>4.110375</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>4.396</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Eólica San Julián</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
         <v>3.82125</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>3.82275</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3.827625</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3.821375</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>4.146</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>4.148875</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>4.15775</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>4.161125</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>4.16675</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>4.172875</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>3.96</v>
       </c>
-      <c r="O15" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="O15">
+        <v>3.959875</v>
+      </c>
+      <c r="P15">
+        <v>3.959875</v>
+      </c>
+      <c r="Q15">
         <v>3.969</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>3.970125</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>3.973125</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>3.895</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>3.903375</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>3.912375</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>3.920125</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>3.927</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>3.950375</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>3.998</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>4.02225</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>4.044</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>4.06025</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>4.090375</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>4.110375</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>4.396</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Eólica Warnes</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
         <v>3.82125</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3.82275</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>3.827625</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3.821375</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>4.146</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>4.148875</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>4.15775</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>4.161125</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>4.16675</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>4.172875</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>3.96</v>
       </c>
-      <c r="O16" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="O16">
+        <v>3.959875</v>
+      </c>
+      <c r="P16">
+        <v>3.959875</v>
+      </c>
+      <c r="Q16">
         <v>3.969</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>3.970125</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>3.973125</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>3.895</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>3.903375</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>3.912375</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>3.920125</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>3.927</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>3.950375</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>3.998</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>4.02225</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>4.044</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>4.06025</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>4.090375</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>4.110375</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>4.396</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GBE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GBE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:33">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
         <v>3.82125</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3.82275</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>3.827625</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3.821375</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>4.146</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>4.148875</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>4.157749999999999</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>4.161125</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>4.16675</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>4.172875</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>3.96</v>
       </c>
-      <c r="O17" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="O17">
+        <v>3.959875</v>
+      </c>
+      <c r="P17">
+        <v>3.959875</v>
+      </c>
+      <c r="Q17">
         <v>3.969</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>3.970125</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>3.973125</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>3.895</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>3.903375</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>3.912375</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>3.920125</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>3.927</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>3.950375</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>3.998</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>4.02225</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>4.044</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>4.06025</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>4.090375</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>4.110375</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Guaracachi</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
         <v>3.82125</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3.82275</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3.827625</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3.821375</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>4.146</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>4.148875</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>4.15775</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>4.161125</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>4.16675</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>4.172875</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>3.96</v>
       </c>
-      <c r="O18" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="O18">
+        <v>3.959875</v>
+      </c>
+      <c r="P18">
+        <v>3.959875</v>
+      </c>
+      <c r="Q18">
         <v>3.969</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>3.970125</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>3.973125</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>3.895</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>3.903375</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>3.912375</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>3.920125</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>3.927</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>3.950375</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>3.998</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>4.02225</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>4.044</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>4.06025</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>4.090375</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>4.110375</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>4.396</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:33">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19">
         <v>3.82125</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>3.82275</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>3.827625</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3.821375</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>4.146</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>4.148875</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>4.157749999999999</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>4.161125</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>4.16675</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>4.172875</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>3.96</v>
       </c>
-      <c r="O19" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="O19">
+        <v>3.959875</v>
+      </c>
+      <c r="P19">
+        <v>3.959875</v>
+      </c>
+      <c r="Q19">
         <v>3.969</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>3.970125</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>3.973125</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>3.895</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>3.903375</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>3.912375</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>3.920125</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>3.927</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>3.950375</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>3.998</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>4.02225</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>4.044</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>4.06025</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>4.090375</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>4.110375</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Huaji</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>COBEE BPCo</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:33">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20">
         <v>3.82125</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>3.82275</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3.827625</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3.821375</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>4.146</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>4.148875</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>4.157749999999999</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>4.161125</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>4.16675</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>4.172875</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>3.96</v>
       </c>
-      <c r="O20" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="O20">
+        <v>3.959875</v>
+      </c>
+      <c r="P20">
+        <v>3.959875</v>
+      </c>
+      <c r="Q20">
         <v>3.969</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>3.970125</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>3.973125</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>3.895</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>3.903375</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>3.912375</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>3.920125</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>3.927</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>3.950375</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>3.998</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>4.02225</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>4.044</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>4.06025</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>4.090375</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>4.110375</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Kanata ARO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SYNERGIA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:33">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
         <v>3.82125</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>3.82275</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3.827625</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3.821375</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>4.146</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>4.148875</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>4.157749999999999</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>4.161125</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>4.16675</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>4.172875</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>3.96</v>
       </c>
-      <c r="O21" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="O21">
+        <v>3.959875</v>
+      </c>
+      <c r="P21">
+        <v>3.959875</v>
+      </c>
+      <c r="Q21">
         <v>3.969</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>3.970125</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>3.973125</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>3.895</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>3.903375</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>3.912375</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>3.920125</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>3.927</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>3.950375</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>3.998</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>4.02225</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>4.044</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>4.06025</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>4.090375</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>4.110375</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Kanata VHE</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SYNERGIA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+    <row r="22" spans="1:33">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
         <v>3.82125</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>3.82275</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3.827625</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3.821375</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>4.146</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4.148875</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>4.157749999999999</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>4.161125</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>4.16675</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>4.172875</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>3.96</v>
       </c>
-      <c r="O22" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="O22">
+        <v>3.959875</v>
+      </c>
+      <c r="P22">
+        <v>3.959875</v>
+      </c>
+      <c r="Q22">
         <v>3.969</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>3.970125</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>3.973125</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>3.895</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>3.903375</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>3.912375</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>3.920125</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>3.927</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>3.950375</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>3.998</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>4.02225</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>4.044</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>4.06025</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>4.090375</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>4.110375</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Miguillas</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>COBEE BPCo</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23">
         <v>3.82125</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>3.82275</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3.827625</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3.821375</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>4.146</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>4.148875</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>4.157749999999999</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>4.161125</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>4.16675</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>4.172875</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>3.96</v>
       </c>
-      <c r="O23" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="O23">
+        <v>3.959875</v>
+      </c>
+      <c r="P23">
+        <v>3.959875</v>
+      </c>
+      <c r="Q23">
         <v>3.969</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>3.970125</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>3.973125</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>3.895</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>3.903375</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>3.912375</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>3.920125</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>3.927</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>3.950375</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>3.998</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>4.02225</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>4.044</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>4.06025</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>4.090375</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23">
         <v>4.110375</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Misicuni ARO</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:33">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
         <v>3.82125</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3.82275</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3.827625</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3.821375</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>4.146</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>4.148875</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>4.15775</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>4.161125</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>4.16675</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>4.172875</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>3.96</v>
       </c>
-      <c r="O24" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="O24">
+        <v>3.959875</v>
+      </c>
+      <c r="P24">
+        <v>3.959875</v>
+      </c>
+      <c r="Q24">
         <v>3.969</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>3.970125</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>3.973125</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>3.895</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>3.903375</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>3.912375</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>3.920125</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>3.927</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>3.950375</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>3.998</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA24">
         <v>4.02225</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24">
         <v>4.044</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24">
         <v>4.06025</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24">
         <v>4.090375</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE24">
         <v>4.110375</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24">
         <v>4.396</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Misicuni VHE</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+    <row r="25" spans="1:33">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25">
         <v>3.82125</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>3.82275</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>3.827625</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3.821375</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>4.146</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>4.148875</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>4.15775</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>4.161125</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>4.16675</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>4.172875</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>3.96</v>
       </c>
-      <c r="O25" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="O25">
+        <v>3.959875</v>
+      </c>
+      <c r="P25">
+        <v>3.959875</v>
+      </c>
+      <c r="Q25">
         <v>3.969</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>3.970125</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>3.973125</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>3.895</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>3.903375</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>3.912375</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>3.920125</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>3.927</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>3.950375</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>3.998</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA25">
         <v>4.02225</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25">
         <v>4.044</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25">
         <v>4.06025</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25">
         <v>4.090375</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE25">
         <v>4.110375</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25">
         <v>4.396</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG25">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Qollpana (Fase I)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+    <row r="26" spans="1:33">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
         <v>3.82125</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>3.82275</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.827625</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.821375</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>4.146</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>4.148875</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>4.15775</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>4.161125</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>4.16675</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>4.172875</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>3.96</v>
       </c>
-      <c r="O26" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="O26">
+        <v>3.959875</v>
+      </c>
+      <c r="P26">
+        <v>3.959875</v>
+      </c>
+      <c r="Q26">
         <v>3.969</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>3.970125</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>3.973125</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>3.895</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>3.903375</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>3.912375</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26">
         <v>3.920125</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>3.927</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>3.950375</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>3.998</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26">
         <v>4.02225</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26">
         <v>4.044</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26">
         <v>4.06025</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26">
         <v>4.090375</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE26">
         <v>4.110375</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26">
         <v>4.396</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Qollpana (Fase II)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+    <row r="27" spans="1:33">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
         <v>3.82125</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3.82275</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.827625</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3.821375</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>4.146</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>4.148875</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>4.15775</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>4.161125</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>4.16675</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>4.172875</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>3.96</v>
       </c>
-      <c r="O27" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="O27">
+        <v>3.959875</v>
+      </c>
+      <c r="P27">
+        <v>3.959875</v>
+      </c>
+      <c r="Q27">
         <v>3.969</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>3.970125</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>3.973125</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>3.895</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>3.903375</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>3.912375</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>3.920125</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>3.927</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>3.950375</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>3.998</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27">
         <v>4.02225</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27">
         <v>4.044</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27">
         <v>4.06025</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27">
         <v>4.090375</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE27">
         <v>4.110375</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27">
         <v>4.396</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RIO ELECTRICO S.A.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RIO ELECTRICO S.A. </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+    <row r="28" spans="1:33">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28">
         <v>3.82125</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>3.82275</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3.827625</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.821375</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>4.146</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>4.148875</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>4.15775</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>4.161125</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>4.16675</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>4.172875</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>3.96</v>
       </c>
-      <c r="O28" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="O28">
+        <v>3.959875</v>
+      </c>
+      <c r="P28">
+        <v>3.959875</v>
+      </c>
+      <c r="Q28">
         <v>3.969</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>3.970125</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>3.973125</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>3.895</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>3.903375</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>3.912375</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>3.920125</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>3.927</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>3.950375</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>3.998</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28">
         <v>4.02225</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28">
         <v>4.044</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28">
         <v>4.06025</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28">
         <v>4.090375</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE28">
         <v>0</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SDB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SDB</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+    <row r="29" spans="1:33">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
         <v>3.82125</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3.82275</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.827625</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3.821375</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>4.146</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>4.148875</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>4.157749999999999</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>4.161125</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>4.16675</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>4.172875</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>3.96</v>
       </c>
-      <c r="O29" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="O29">
+        <v>3.959875</v>
+      </c>
+      <c r="P29">
+        <v>3.959875</v>
+      </c>
+      <c r="Q29">
         <v>3.969</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>3.970125</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>3.973125</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>3.895</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>3.903375</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>3.912375</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29">
         <v>3.920125</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>3.927</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29">
         <v>3.950375</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>3.998</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA29">
         <v>4.02225</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29">
         <v>4.044</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC29">
         <v>4.06025</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD29">
         <v>4.090375</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE29">
         <v>4.110375</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG29">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>San Jacinto</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+    <row r="30" spans="1:33">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
         <v>3.82125</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>3.82275</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.827625</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.821375</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>4.146</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>4.148875</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>4.15775</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>4.161125</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>4.16675</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>4.172875</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>3.96</v>
       </c>
-      <c r="O30" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="O30">
+        <v>3.959875</v>
+      </c>
+      <c r="P30">
+        <v>3.959875</v>
+      </c>
+      <c r="Q30">
         <v>3.969</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>3.970125</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>3.973125</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>3.895</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>3.903375</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>3.912375</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>3.920125</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>3.927</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>3.950375</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z30">
         <v>3.998</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA30">
         <v>4.02225</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30">
         <v>4.044</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30">
         <v>4.06025</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD30">
         <v>4.090375</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE30">
         <v>4.110375</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30">
         <v>4.396</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>San José I</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+    <row r="31" spans="1:33">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31">
         <v>3.82125</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3.82275</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>3.827625</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3.821375</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>4.146</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>4.148875</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>4.15775</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>4.161125</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>4.16675</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>4.172875</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>3.96</v>
       </c>
-      <c r="O31" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="O31">
+        <v>3.959875</v>
+      </c>
+      <c r="P31">
+        <v>3.959875</v>
+      </c>
+      <c r="Q31">
         <v>3.969</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>3.970125</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>3.973125</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>3.895</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>3.903375</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>3.912375</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31">
         <v>3.920125</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>3.927</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31">
         <v>3.950375</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z31">
         <v>3.998</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA31">
         <v>4.02225</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31">
         <v>4.044</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC31">
         <v>4.06025</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD31">
         <v>4.090375</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE31">
         <v>4.110375</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31">
         <v>4.396</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>San José II</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+    <row r="32" spans="1:33">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32">
         <v>3.82125</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>3.82275</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.827625</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3.821375</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>4.146</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>4.148875</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>4.15775</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>4.161125</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>4.16675</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>4.172875</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>3.96</v>
       </c>
-      <c r="O32" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="O32">
+        <v>3.959875</v>
+      </c>
+      <c r="P32">
+        <v>3.959875</v>
+      </c>
+      <c r="Q32">
         <v>3.969</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>3.970125</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>3.973125</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>3.895</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>3.903375</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>3.912375</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32">
         <v>3.920125</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>3.927</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>3.950375</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z32">
         <v>3.998</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA32">
         <v>4.02225</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32">
         <v>4.044</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC32">
         <v>4.06025</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD32">
         <v>4.090375</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE32">
         <v>4.110375</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32">
         <v>4.396</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG32">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Santa Cruz</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+    <row r="33" spans="1:33">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
         <v>3.82125</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>3.82275</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.827625</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.821375</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>4.146</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>4.148875</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>4.15775</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>4.161125</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>4.16675</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>4.172875</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>3.96</v>
       </c>
-      <c r="O33" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="O33">
+        <v>3.959875</v>
+      </c>
+      <c r="P33">
+        <v>3.959875</v>
+      </c>
+      <c r="Q33">
         <v>3.969</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>3.970125</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>3.973125</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>3.895</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>3.903375</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>3.912375</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W33">
         <v>3.920125</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33">
         <v>3.927</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33">
         <v>3.950375</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="Z33">
         <v>3.998</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AA33">
         <v>4.02225</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB33">
         <v>4.044</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AC33">
         <v>4.06025</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AD33">
         <v>4.090375</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AE33">
         <v>4.110375</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF33">
         <v>4.396</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AG33">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Santa Cruz (Aguaí)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+    <row r="34" spans="1:33">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34">
         <v>3.82125</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>3.82275</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>3.827625</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>0</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z34">
         <v>0</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD34">
         <v>0</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE34">
         <v>0</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF34">
         <v>0</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG34">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Santa Cruz (EASBA)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+    <row r="35" spans="1:33">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
         <v>3.82125</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>3.82275</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>3.827625</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3.821375</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>4.146</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>4.148875</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>4.15775</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>4.161125</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>4.16675</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>4.172875</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>3.96</v>
       </c>
-      <c r="O35" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="O35">
+        <v>3.959875</v>
+      </c>
+      <c r="P35">
+        <v>3.959875</v>
+      </c>
+      <c r="Q35">
         <v>3.969</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>3.970125</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>3.973125</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>3.895</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>3.903375</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35">
         <v>3.912375</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35">
         <v>3.920125</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35">
         <v>3.927</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35">
         <v>3.950375</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z35">
         <v>3.998</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AA35">
         <v>4.02225</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB35">
         <v>4.044</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AC35">
         <v>4.06025</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AD35">
         <v>4.090375</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AE35">
         <v>4.110375</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AF35">
         <v>4.396</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AG35">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Santa Cruz (Unagro)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+    <row r="36" spans="1:33">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36">
         <v>3.82125</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3.82275</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>3.827625</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3.821375</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>4.146</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>4.148875</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>4.15775</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>4.161125</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>4.16675</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>4.172875</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>3.96</v>
       </c>
-      <c r="O36" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="O36">
+        <v>3.959875</v>
+      </c>
+      <c r="P36">
+        <v>3.959875</v>
+      </c>
+      <c r="Q36">
         <v>3.969</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>3.970125</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>3.973125</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36">
         <v>3.895</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>3.903375</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36">
         <v>3.912375</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36">
         <v>3.920125</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36">
         <v>3.927</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36">
         <v>3.950375</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z36">
         <v>3.998</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AA36">
         <v>4.02225</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB36">
         <v>4.044</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AC36">
         <v>4.06025</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AD36">
         <v>4.090375</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AE36">
         <v>4.110375</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF36">
         <v>4.396</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG36">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Santa Isabel</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ENDE CORANI S.A.</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+    <row r="37" spans="1:33">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
         <v>3.82125</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>3.82275</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>3.827625</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3.821375</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>4.146</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>4.148875</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>4.15775</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>4.161125</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>4.16675</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>4.172875</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>3.96</v>
       </c>
-      <c r="O37" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="O37">
+        <v>3.959875</v>
+      </c>
+      <c r="P37">
+        <v>3.959875</v>
+      </c>
+      <c r="Q37">
         <v>3.969</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>3.970125</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>3.973125</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>3.895</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>3.903375</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37">
         <v>3.912375</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37">
         <v>3.920125</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37">
         <v>3.927</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37">
         <v>3.950375</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z37">
         <v>3.998</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA37">
         <v>4.02225</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB37">
         <v>4.044</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC37">
         <v>4.06025</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AD37">
         <v>4.090375</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AE37">
         <v>4.110375</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF37">
         <v>4.396</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AG37">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Solar Oruro (Fase I)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+    <row r="38" spans="1:33">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38">
         <v>3.82125</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>3.82275</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>3.827625</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3.821375</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>4.146</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>4.148875</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>4.15775</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>4.161125</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>4.16675</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>4.172875</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>3.96</v>
       </c>
-      <c r="O38" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="O38">
+        <v>3.959875</v>
+      </c>
+      <c r="P38">
+        <v>3.959875</v>
+      </c>
+      <c r="Q38">
         <v>3.969</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>3.970125</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>3.973125</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38">
         <v>3.895</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38">
         <v>3.903375</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38">
         <v>3.912375</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W38">
         <v>3.920125</v>
       </c>
-      <c r="X38" t="n">
+      <c r="X38">
         <v>3.927</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y38">
         <v>3.950375</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="Z38">
         <v>3.998</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AA38">
         <v>4.02225</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB38">
         <v>4.044</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AC38">
         <v>4.06025</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AD38">
         <v>4.090375</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AE38">
         <v>4.110375</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF38">
         <v>4.396</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AG38">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Solar Oruro (Fase II)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ENDE GENERACION</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+    <row r="39" spans="1:33">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39">
         <v>3.82125</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>3.82275</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>3.827625</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.821375</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>4.146</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>4.148875</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>4.15775</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>4.161125</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>4.16675</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>4.172875</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>3.96</v>
       </c>
-      <c r="O39" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="O39">
+        <v>3.959875</v>
+      </c>
+      <c r="P39">
+        <v>3.959875</v>
+      </c>
+      <c r="Q39">
         <v>3.969</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>3.970125</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>3.973125</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39">
         <v>3.895</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>3.903375</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V39">
         <v>3.912375</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W39">
         <v>3.920125</v>
       </c>
-      <c r="X39" t="n">
+      <c r="X39">
         <v>3.927</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y39">
         <v>3.950375</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="Z39">
         <v>3.998</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AA39">
         <v>4.02225</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AB39">
         <v>4.044</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AC39">
         <v>4.06025</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AD39">
         <v>4.090375</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AE39">
         <v>4.110375</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AF39">
         <v>4.396</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AG39">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Uyuni</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+    <row r="40" spans="1:33">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
         <v>3.82125</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>3.82275</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>3.827625</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3.821375</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>4.146</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>4.148875</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>4.15775</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>4.161125</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>4.16675</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>4.172875</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>3.96</v>
       </c>
-      <c r="O40" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="O40">
+        <v>3.959875</v>
+      </c>
+      <c r="P40">
+        <v>3.959875</v>
+      </c>
+      <c r="Q40">
         <v>3.969</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>3.970125</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>3.973125</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40">
         <v>3.895</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40">
         <v>3.903375</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40">
         <v>3.912375</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W40">
         <v>3.920125</v>
       </c>
-      <c r="X40" t="n">
+      <c r="X40">
         <v>3.927</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y40">
         <v>3.950375</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="Z40">
         <v>3.998</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AA40">
         <v>4.02225</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB40">
         <v>4.044</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AC40">
         <v>4.06025</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AD40">
         <v>4.090375</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AE40">
         <v>4.110375</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF40">
         <v>4.396</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG40">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Valle Hermoso</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ENDE VALLE HERMOSO S.A.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+    <row r="41" spans="1:33">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41">
         <v>3.82125</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>3.82275</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>3.827625</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3.821375</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>4.146</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>4.148875</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>4.15775</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>4.161125</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>4.16675</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>4.172875</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>3.96</v>
       </c>
-      <c r="O41" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="O41">
+        <v>3.959875</v>
+      </c>
+      <c r="P41">
+        <v>3.959875</v>
+      </c>
+      <c r="Q41">
         <v>3.969</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>3.970125</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41">
         <v>3.973125</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41">
         <v>3.895</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U41">
         <v>3.903375</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V41">
         <v>3.912375</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W41">
         <v>3.920125</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X41">
         <v>3.927</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y41">
         <v>3.950375</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="Z41">
         <v>3.998</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AA41">
         <v>4.02225</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AB41">
         <v>4.044</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AC41">
         <v>4.06025</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AD41">
         <v>4.090375</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AE41">
         <v>4.110375</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AF41">
         <v>4.396</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AG41">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Warnes</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ENDE ANDINA S.A.M.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+    <row r="42" spans="1:33">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
         <v>3.82125</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>3.82275</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>3.827625</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3.821375</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>4.146</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>4.148875</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>4.15775</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>4.161125</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>4.16675</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>4.172875</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>3.96</v>
       </c>
-      <c r="O42" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="O42">
+        <v>3.959875</v>
+      </c>
+      <c r="P42">
+        <v>3.959875</v>
+      </c>
+      <c r="Q42">
         <v>3.969</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>3.970125</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>3.973125</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42">
         <v>3.895</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U42">
         <v>3.903375</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V42">
         <v>3.912375</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W42">
         <v>3.920125</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X42">
         <v>3.927</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y42">
         <v>3.950375</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="Z42">
         <v>3.998</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AA42">
         <v>4.02225</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB42">
         <v>4.044</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AC42">
         <v>4.06025</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AD42">
         <v>4.090375</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AE42">
         <v>4.110375</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF42">
         <v>4.396</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG42">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Yunchara</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ENDE GUARACACHI S.A.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+    <row r="43" spans="1:33">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43">
         <v>3.82125</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>3.82275</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>3.827625</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3.821375</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>4.146</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>4.148875</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>4.15775</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>4.161125</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>4.16675</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>4.172875</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>3.96</v>
       </c>
-      <c r="O43" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="O43">
+        <v>3.959875</v>
+      </c>
+      <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>3.970125</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43">
         <v>3.973125</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43">
         <v>3.895</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U43">
         <v>3.903375</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V43">
         <v>3.912375</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W43">
         <v>3.920125</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X43">
         <v>3.927</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y43">
         <v>3.950375</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="Z43">
         <v>3.998</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AA43">
         <v>4.02225</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AB43">
         <v>4.044</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AC43">
         <v>4.06025</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AD43">
         <v>4.090375</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AE43">
         <v>4.110375</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AF43">
         <v>4.396</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AG43">
         <v>4.410625</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Zongo</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>COBEE BPCo</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+    <row r="44" spans="1:33">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
         <v>3.82125</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>3.82275</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>3.827625</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3.821375</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>4.146</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>4.148875</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>4.157749999999999</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>4.161125</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>4.16675</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>4.172875</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>3.96</v>
       </c>
-      <c r="O44" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.959875</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="O44">
+        <v>3.959875</v>
+      </c>
+      <c r="P44">
+        <v>3.959875</v>
+      </c>
+      <c r="Q44">
         <v>3.969</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>3.970125</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44">
         <v>3.973125</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44">
         <v>3.895</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44">
         <v>3.903375</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44">
         <v>3.912375</v>
       </c>
-      <c r="W44" t="n">
+      <c r="W44">
         <v>3.920125</v>
       </c>
-      <c r="X44" t="n">
+      <c r="X44">
         <v>3.927</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Y44">
         <v>3.950375</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="Z44">
         <v>3.998</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AA44">
         <v>4.02225</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AB44">
         <v>4.044</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AC44">
         <v>4.06025</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AD44">
         <v>4.090375</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AE44">
         <v>4.110375</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AF44">
         <v>4.396000000000001</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AG44">
         <v>4.410625</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>